--- a/meta/unc_vernacular.xlsx
+++ b/meta/unc_vernacular.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10185"/>
   </bookViews>
   <sheets>
     <sheet name="blocks" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId6"/>
-    <pivotCache cacheId="15" r:id="rId7"/>
+    <pivotCache cacheId="22" r:id="rId6"/>
+    <pivotCache cacheId="23" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1026,67 +1026,6 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1134,6 +1073,67 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4790,7 +4790,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nvfieldsummary" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nvfieldsummary" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -4869,7 +4869,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="vfieldsummary" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="vfieldsummary" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -5131,20 +5131,20 @@
   <tableColumns count="10">
     <tableColumn id="1" name="Language"/>
     <tableColumn id="2" name="Block"/>
-    <tableColumn id="5" name="codepoint_range" dataDxfId="3">
+    <tableColumn id="5" name="codepoint_range" dataDxfId="10">
       <calculatedColumnFormula>IF(blocks[codepoints_override]=".","[\x"&amp;D2&amp;"-\x"&amp;E2&amp;"]",blocks[codepoints_override])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="codepoint_begin" dataDxfId="6"/>
+    <tableColumn id="3" name="codepoint_begin" dataDxfId="9"/>
     <tableColumn id="4" name="codepoint_end"/>
     <tableColumn id="8" name="880s_checked"/>
-    <tableColumn id="11" name="non880s_checked" dataDxfId="1"/>
-    <tableColumn id="9" name="Total_880s" dataDxfId="5">
+    <tableColumn id="11" name="non880s_checked" dataDxfId="8"/>
+    <tableColumn id="9" name="Total_880s" dataDxfId="7">
       <calculatedColumnFormula>GETPIVOTDATA("880",vfield_summary,"Block",blocks[Block])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Total_non880" dataDxfId="0">
+    <tableColumn id="12" name="Total_non880" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="codepoints_override" dataDxfId="4"/>
+    <tableColumn id="10" name="codepoints_override" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5154,7 +5154,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C160" totalsRowShown="0">
   <autoFilter ref="A1:C160"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Block" dataDxfId="2"/>
+    <tableColumn id="1" name="Block" dataDxfId="4"/>
     <tableColumn id="2" name="Field"/>
     <tableColumn id="3" name="Field_count"/>
   </tableColumns>
@@ -5163,12 +5163,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="vfields" displayName="vfields" ref="A1:C545" totalsRowShown="0" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="vfields" displayName="vfields" ref="A1:C545" totalsRowShown="0" dataDxfId="3">
   <autoFilter ref="A1:C545"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Block" dataDxfId="10"/>
-    <tableColumn id="2" name="Field" dataDxfId="9"/>
-    <tableColumn id="4" name="880" dataDxfId="8"/>
+    <tableColumn id="1" name="Block" dataDxfId="2"/>
+    <tableColumn id="2" name="Field" dataDxfId="1"/>
+    <tableColumn id="4" name="880" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5440,7 +5440,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/meta/unc_vernacular.xlsx
+++ b/meta/unc_vernacular.xlsx
@@ -20,8 +20,8 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId6"/>
-    <pivotCache cacheId="23" r:id="rId7"/>
+    <pivotCache cacheId="103" r:id="rId6"/>
+    <pivotCache cacheId="104" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -940,6 +940,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4790,7 +4791,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nvfieldsummary" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nvfieldsummary" cacheId="104" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -4869,7 +4870,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="vfieldsummary" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="vfieldsummary" cacheId="103" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -5440,7 +5441,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7367,8 +7368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9271,8 +9272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C545"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/meta/unc_vernacular.xlsx
+++ b/meta/unc_vernacular.xlsx
@@ -20,8 +20,8 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="103" r:id="rId6"/>
-    <pivotCache cacheId="104" r:id="rId7"/>
+    <pivotCache cacheId="69" r:id="rId6"/>
+    <pivotCache cacheId="68" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="296">
   <si>
     <t>Language</t>
   </si>
@@ -914,6 +914,12 @@
   </si>
   <si>
     <t>Total_non880</t>
+  </si>
+  <si>
+    <t>Count of non-880 variable fields containing the specified script</t>
+  </si>
+  <si>
+    <t>(Multiple Items)</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1221,101 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Field" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="93">
+        <s v="{020}"/>
+        <s v="{028}"/>
+        <s v="{037}"/>
+        <s v="{100}"/>
+        <s v="{110}"/>
+        <s v="{111}"/>
+        <s v="{130}"/>
+        <s v="{210}"/>
+        <s v="{222}"/>
+        <s v="{240}"/>
+        <s v="{245}"/>
+        <s v="{246}"/>
+        <s v="{247}"/>
+        <s v="{250}"/>
+        <s v="{255}"/>
+        <s v="{260}"/>
+        <s v="{264}"/>
+        <s v="{265}"/>
+        <s v="{300}"/>
+        <s v="{310}"/>
+        <s v="{321}"/>
+        <s v="{362}"/>
+        <s v="{440}"/>
+        <s v="{490}"/>
+        <s v="{500}"/>
+        <s v="{501}"/>
+        <s v="{502}"/>
+        <s v="{504}"/>
+        <s v="{505}"/>
+        <s v="{508}"/>
+        <s v="{511}"/>
+        <s v="{515}"/>
+        <s v="{518}"/>
+        <s v="{520}"/>
+        <s v="{521}"/>
+        <s v="{525}"/>
+        <s v="{530}"/>
+        <s v="{533}"/>
+        <s v="{534}"/>
+        <s v="{536}"/>
+        <s v="{538}"/>
+        <s v="{540}"/>
+        <s v="{546}"/>
+        <s v="{547}"/>
+        <s v="{550}"/>
+        <s v="{555}"/>
+        <s v="{580}"/>
+        <s v="{586}"/>
+        <s v="{588}"/>
+        <s v="{590}"/>
+        <s v="{600}"/>
+        <s v="{610}"/>
+        <s v="{611}"/>
+        <s v="{630}"/>
+        <s v="{648}"/>
+        <s v="{650}"/>
+        <s v="{651}"/>
+        <s v="{653}"/>
+        <s v="{655}"/>
+        <s v="{700}"/>
+        <s v="{710}"/>
+        <s v="{711}"/>
+        <s v="{730}"/>
+        <s v="{740}"/>
+        <s v="{752}"/>
+        <s v="{760}"/>
+        <s v="{762}"/>
+        <s v="{765}"/>
+        <s v="{767}"/>
+        <s v="{770}"/>
+        <s v="{772}"/>
+        <s v="{773}"/>
+        <s v="{774}"/>
+        <s v="{775}"/>
+        <s v="{776}"/>
+        <s v="{777}"/>
+        <s v="{780}"/>
+        <s v="{785}"/>
+        <s v="{787}"/>
+        <s v="{800}"/>
+        <s v="{810}"/>
+        <s v="{811}"/>
+        <s v="{830}"/>
+        <s v="{856}"/>
+        <s v="na"/>
+        <s v="{880}"/>
+        <s v="{254}"/>
+        <s v="{506}"/>
+        <s v="{510}"/>
+        <s v="{542}"/>
+        <s v="{786}"/>
+        <s v="{242}"/>
+        <s v="{585}"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="880" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="106726"/>
@@ -1251,7 +1351,62 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Field" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="54">
+        <s v="{090}"/>
+        <s v="{100}"/>
+        <s v="{130}"/>
+        <s v="{240}"/>
+        <s v="{245}"/>
+        <s v="{246}"/>
+        <s v="{250}"/>
+        <s v="{260}"/>
+        <s v="{264}"/>
+        <s v="{440}"/>
+        <s v="{500}"/>
+        <s v="{501}"/>
+        <s v="{502}"/>
+        <s v="{504}"/>
+        <s v="{505}"/>
+        <s v="{520}"/>
+        <s v="{533}"/>
+        <s v="{534}"/>
+        <s v="{546}"/>
+        <s v="{600}"/>
+        <s v="{650}"/>
+        <s v="{651}"/>
+        <s v="{700}"/>
+        <s v="{710}"/>
+        <s v="{740}"/>
+        <s v="{765}"/>
+        <s v="{856}"/>
+        <s v="{960}"/>
+        <s v="{362}"/>
+        <s v="{511}"/>
+        <s v="{518}"/>
+        <s v="{586}"/>
+        <s v="{588}"/>
+        <s v="{590}"/>
+        <s v="{776}"/>
+        <s v="{785}"/>
+        <s v="{948}"/>
+        <s v="{949}"/>
+        <s v="{210}"/>
+        <s v="{222}"/>
+        <s v="{490}"/>
+        <s v="{515}"/>
+        <s v="{780}"/>
+        <s v="{999}"/>
+        <s v="{510}"/>
+        <s v="{562}"/>
+        <s v="{086}"/>
+        <s v="{300}"/>
+        <s v="{561}"/>
+        <s v="{580}"/>
+        <s v="{610}"/>
+        <s v="{630}"/>
+        <s v="{690}"/>
+        <s v="{830}"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Field_count" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="28574"/>
@@ -1269,2722 +1424,2722 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="544">
   <r>
     <x v="0"/>
-    <s v="{020}"/>
+    <x v="0"/>
     <n v="66"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{028}"/>
+    <x v="1"/>
     <n v="7"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{037}"/>
+    <x v="2"/>
     <n v="102"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{100}"/>
+    <x v="3"/>
     <n v="64289"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{110}"/>
+    <x v="4"/>
     <n v="1538"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{111}"/>
+    <x v="5"/>
     <n v="676"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{130}"/>
+    <x v="6"/>
     <n v="8003"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{210}"/>
+    <x v="7"/>
     <n v="38"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{222}"/>
+    <x v="8"/>
     <n v="43"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{240}"/>
+    <x v="9"/>
     <n v="1212"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{245}"/>
+    <x v="10"/>
     <n v="106726"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{246}"/>
+    <x v="11"/>
     <n v="22488"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{247}"/>
+    <x v="12"/>
     <n v="10"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{250}"/>
+    <x v="13"/>
     <n v="68196"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{255}"/>
+    <x v="14"/>
     <n v="3"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{260}"/>
+    <x v="15"/>
     <n v="87567"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{264}"/>
+    <x v="16"/>
     <n v="16244"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{265}"/>
+    <x v="17"/>
     <n v="4"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{300}"/>
+    <x v="18"/>
     <n v="111"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{310}"/>
+    <x v="19"/>
     <n v="3718"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{321}"/>
+    <x v="20"/>
     <n v="4"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{362}"/>
+    <x v="21"/>
     <n v="1498"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{440}"/>
+    <x v="22"/>
     <n v="27"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{490}"/>
+    <x v="23"/>
     <n v="48081"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{500}"/>
+    <x v="24"/>
     <n v="14816"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{501}"/>
+    <x v="25"/>
     <n v="201"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{502}"/>
+    <x v="26"/>
     <n v="154"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{504}"/>
+    <x v="27"/>
     <n v="1074"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{505}"/>
+    <x v="28"/>
     <n v="3283"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{508}"/>
+    <x v="29"/>
     <n v="629"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{511}"/>
+    <x v="30"/>
     <n v="872"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{515}"/>
+    <x v="31"/>
     <n v="333"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{518}"/>
+    <x v="32"/>
     <n v="1"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{520}"/>
+    <x v="33"/>
     <n v="1532"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{521}"/>
+    <x v="34"/>
     <n v="10"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{525}"/>
+    <x v="35"/>
     <n v="5"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{530}"/>
+    <x v="36"/>
     <n v="1"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{533}"/>
+    <x v="37"/>
     <n v="105"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{534}"/>
+    <x v="38"/>
     <n v="152"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{536}"/>
+    <x v="39"/>
     <n v="4"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{538}"/>
+    <x v="40"/>
     <n v="5"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{540}"/>
+    <x v="41"/>
     <n v="6"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{546}"/>
+    <x v="42"/>
     <n v="132"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{547}"/>
+    <x v="43"/>
     <n v="2"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{550}"/>
+    <x v="44"/>
     <n v="452"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{555}"/>
+    <x v="45"/>
     <n v="1"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{580}"/>
+    <x v="46"/>
     <n v="209"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{586}"/>
+    <x v="47"/>
     <n v="55"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{588}"/>
+    <x v="48"/>
     <n v="169"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{590}"/>
+    <x v="49"/>
     <n v="2"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{600}"/>
+    <x v="50"/>
     <n v="16504"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{610}"/>
+    <x v="51"/>
     <n v="3423"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{611}"/>
+    <x v="52"/>
     <n v="9"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{630}"/>
+    <x v="53"/>
     <n v="1654"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{648}"/>
+    <x v="54"/>
     <n v="2"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{650}"/>
+    <x v="55"/>
     <n v="2665"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{651}"/>
+    <x v="56"/>
     <n v="4245"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{653}"/>
+    <x v="57"/>
     <n v="386"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{655}"/>
+    <x v="58"/>
     <n v="21"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{700}"/>
+    <x v="59"/>
     <n v="50917"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{710}"/>
+    <x v="60"/>
     <n v="20486"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{711}"/>
+    <x v="61"/>
     <n v="208"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{730}"/>
+    <x v="62"/>
     <n v="1291"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{740}"/>
+    <x v="63"/>
     <n v="5163"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{752}"/>
+    <x v="64"/>
     <n v="1"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{760}"/>
+    <x v="65"/>
     <n v="16"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{762}"/>
+    <x v="66"/>
     <n v="10"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{765}"/>
+    <x v="67"/>
     <n v="5"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{767}"/>
+    <x v="68"/>
     <n v="14"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{770}"/>
+    <x v="69"/>
     <n v="40"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{772}"/>
+    <x v="70"/>
     <n v="14"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{773}"/>
+    <x v="71"/>
     <n v="6986"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{774}"/>
+    <x v="72"/>
     <n v="5"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{775}"/>
+    <x v="73"/>
     <n v="97"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{776}"/>
+    <x v="74"/>
     <n v="302"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{777}"/>
+    <x v="75"/>
     <n v="4"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{780}"/>
+    <x v="76"/>
     <n v="827"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{785}"/>
+    <x v="77"/>
     <n v="410"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{787}"/>
+    <x v="78"/>
     <n v="23"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{800}"/>
+    <x v="79"/>
     <n v="2471"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{810}"/>
+    <x v="80"/>
     <n v="30"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{811}"/>
+    <x v="81"/>
     <n v="7"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{830}"/>
+    <x v="82"/>
     <n v="43417"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{856}"/>
+    <x v="83"/>
     <n v="10"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{100}"/>
+    <x v="3"/>
     <n v="1"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{245}"/>
+    <x v="10"/>
     <n v="1"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{505}"/>
+    <x v="28"/>
     <n v="2"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{520}"/>
+    <x v="33"/>
     <n v="1"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{100}"/>
+    <x v="3"/>
     <n v="58"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{240}"/>
+    <x v="9"/>
     <n v="2"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{245}"/>
+    <x v="10"/>
     <n v="258"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{246}"/>
+    <x v="11"/>
     <n v="52"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{250}"/>
+    <x v="13"/>
     <n v="1"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{260}"/>
+    <x v="15"/>
     <n v="2"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{490}"/>
+    <x v="23"/>
     <n v="111"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{500}"/>
+    <x v="24"/>
     <n v="25"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{505}"/>
+    <x v="28"/>
     <n v="13"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{508}"/>
+    <x v="29"/>
     <n v="1"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{511}"/>
+    <x v="30"/>
     <n v="2"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{520}"/>
+    <x v="33"/>
     <n v="49"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{600}"/>
+    <x v="50"/>
     <n v="22"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{655}"/>
+    <x v="58"/>
     <n v="1"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{700}"/>
+    <x v="59"/>
     <n v="45"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{710}"/>
+    <x v="60"/>
     <n v="2"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{740}"/>
+    <x v="63"/>
     <n v="2"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{800}"/>
+    <x v="79"/>
     <n v="5"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{830}"/>
+    <x v="82"/>
     <n v="89"/>
   </r>
   <r>
     <x v="3"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="7"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="8"/>
-    <s v="{245}"/>
+    <x v="10"/>
     <n v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{100}"/>
+    <x v="3"/>
     <n v="82"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{111}"/>
+    <x v="5"/>
     <n v="6"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{130}"/>
+    <x v="6"/>
     <n v="35"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{240}"/>
+    <x v="9"/>
     <n v="262"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{245}"/>
+    <x v="10"/>
     <n v="3256"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{246}"/>
+    <x v="11"/>
     <n v="467"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{255}"/>
+    <x v="14"/>
     <n v="2"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{260}"/>
+    <x v="15"/>
     <n v="77"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{264}"/>
+    <x v="16"/>
     <n v="8"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{300}"/>
+    <x v="18"/>
     <n v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{440}"/>
+    <x v="22"/>
     <n v="3"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{490}"/>
+    <x v="23"/>
     <n v="374"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{500}"/>
+    <x v="24"/>
     <n v="329"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{501}"/>
+    <x v="25"/>
     <n v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{504}"/>
+    <x v="27"/>
     <n v="21"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{505}"/>
+    <x v="28"/>
     <n v="381"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{508}"/>
+    <x v="29"/>
     <n v="4"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{511}"/>
+    <x v="30"/>
     <n v="32"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{520}"/>
+    <x v="33"/>
     <n v="3"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{533}"/>
+    <x v="37"/>
     <n v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{534}"/>
+    <x v="38"/>
     <n v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{546}"/>
+    <x v="42"/>
     <n v="2"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{580}"/>
+    <x v="46"/>
     <n v="2"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{586}"/>
+    <x v="47"/>
     <n v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{600}"/>
+    <x v="50"/>
     <n v="23"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{610}"/>
+    <x v="51"/>
     <n v="3"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{650}"/>
+    <x v="55"/>
     <n v="20"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{653}"/>
+    <x v="57"/>
     <n v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{700}"/>
+    <x v="59"/>
     <n v="171"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{710}"/>
+    <x v="60"/>
     <n v="52"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{711}"/>
+    <x v="61"/>
     <n v="2"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{730}"/>
+    <x v="62"/>
     <n v="18"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{740}"/>
+    <x v="63"/>
     <n v="142"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{765}"/>
+    <x v="67"/>
     <n v="2"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{770}"/>
+    <x v="69"/>
     <n v="3"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{773}"/>
+    <x v="71"/>
     <n v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{775}"/>
+    <x v="73"/>
     <n v="10"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{776}"/>
+    <x v="74"/>
     <n v="4"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{777}"/>
+    <x v="75"/>
     <n v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{780}"/>
+    <x v="76"/>
     <n v="10"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{785}"/>
+    <x v="77"/>
     <n v="6"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{787}"/>
+    <x v="78"/>
     <n v="2"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{800}"/>
+    <x v="79"/>
     <n v="36"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{830}"/>
+    <x v="82"/>
     <n v="301"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{100}"/>
+    <x v="3"/>
     <n v="414"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{110}"/>
+    <x v="4"/>
     <n v="34"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{111}"/>
+    <x v="5"/>
     <n v="6"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{130}"/>
+    <x v="6"/>
     <n v="16"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{240}"/>
+    <x v="9"/>
     <n v="65"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{245}"/>
+    <x v="10"/>
     <n v="3477"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{246}"/>
+    <x v="11"/>
     <n v="389"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{250}"/>
+    <x v="13"/>
     <n v="1202"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{260}"/>
+    <x v="15"/>
     <n v="496"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{264}"/>
+    <x v="16"/>
     <n v="39"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{300}"/>
+    <x v="18"/>
     <n v="5"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{362}"/>
+    <x v="21"/>
     <n v="2"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{490}"/>
+    <x v="23"/>
     <n v="690"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{500}"/>
+    <x v="24"/>
     <n v="231"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{501}"/>
+    <x v="25"/>
     <n v="3"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{504}"/>
+    <x v="27"/>
     <n v="7"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{505}"/>
+    <x v="28"/>
     <n v="238"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{508}"/>
+    <x v="29"/>
     <n v="10"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{511}"/>
+    <x v="30"/>
     <n v="17"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{518}"/>
+    <x v="32"/>
     <n v="1"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{520}"/>
+    <x v="33"/>
     <n v="4"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{525}"/>
+    <x v="35"/>
     <n v="1"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{534}"/>
+    <x v="38"/>
     <n v="1"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{538}"/>
+    <x v="40"/>
     <n v="3"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{546}"/>
+    <x v="42"/>
     <n v="1"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{550}"/>
+    <x v="44"/>
     <n v="2"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{580}"/>
+    <x v="46"/>
     <n v="6"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{586}"/>
+    <x v="47"/>
     <n v="1"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{600}"/>
+    <x v="50"/>
     <n v="54"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{610}"/>
+    <x v="51"/>
     <n v="31"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{630}"/>
+    <x v="53"/>
     <n v="30"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{650}"/>
+    <x v="55"/>
     <n v="107"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{651}"/>
+    <x v="56"/>
     <n v="7"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{653}"/>
+    <x v="57"/>
     <n v="57"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{700}"/>
+    <x v="59"/>
     <n v="508"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{710}"/>
+    <x v="60"/>
     <n v="491"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{711}"/>
+    <x v="61"/>
     <n v="7"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{730}"/>
+    <x v="62"/>
     <n v="26"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{740}"/>
+    <x v="63"/>
     <n v="123"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{770}"/>
+    <x v="69"/>
     <n v="7"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{773}"/>
+    <x v="71"/>
     <n v="2"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{775}"/>
+    <x v="73"/>
     <n v="7"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{776}"/>
+    <x v="74"/>
     <n v="3"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{780}"/>
+    <x v="76"/>
     <n v="15"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{785}"/>
+    <x v="77"/>
     <n v="16"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{787}"/>
+    <x v="78"/>
     <n v="2"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{800}"/>
+    <x v="79"/>
     <n v="66"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{830}"/>
+    <x v="82"/>
     <n v="530"/>
   </r>
   <r>
     <x v="11"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="12"/>
-    <s v="{505}"/>
+    <x v="28"/>
     <n v="7"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{020}"/>
+    <x v="0"/>
     <n v="7"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{100}"/>
+    <x v="3"/>
     <n v="1594"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{110}"/>
+    <x v="4"/>
     <n v="80"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{111}"/>
+    <x v="5"/>
     <n v="14"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{130}"/>
+    <x v="6"/>
     <n v="32"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{240}"/>
+    <x v="9"/>
     <n v="57"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{245}"/>
+    <x v="10"/>
     <n v="3155"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{246}"/>
+    <x v="11"/>
     <n v="977"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{247}"/>
+    <x v="12"/>
     <n v="1"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{250}"/>
+    <x v="13"/>
     <n v="2217"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{260}"/>
+    <x v="15"/>
     <n v="1972"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{264}"/>
+    <x v="16"/>
     <n v="1114"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{300}"/>
+    <x v="18"/>
     <n v="9"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{362}"/>
+    <x v="21"/>
     <n v="11"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{490}"/>
+    <x v="23"/>
     <n v="1076"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{500}"/>
+    <x v="24"/>
     <n v="266"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{501}"/>
+    <x v="25"/>
     <n v="1"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{504}"/>
+    <x v="27"/>
     <n v="7"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{505}"/>
+    <x v="28"/>
     <n v="217"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{508}"/>
+    <x v="29"/>
     <n v="196"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{511}"/>
+    <x v="30"/>
     <n v="242"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{515}"/>
+    <x v="31"/>
     <n v="4"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{520}"/>
+    <x v="33"/>
     <n v="3"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{521}"/>
+    <x v="34"/>
     <n v="19"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{525}"/>
+    <x v="35"/>
     <n v="2"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{536}"/>
+    <x v="39"/>
     <n v="2"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{546}"/>
+    <x v="42"/>
     <n v="5"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{550}"/>
+    <x v="44"/>
     <n v="2"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{580}"/>
+    <x v="46"/>
     <n v="3"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{586}"/>
+    <x v="47"/>
     <n v="3"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{588}"/>
+    <x v="48"/>
     <n v="3"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{600}"/>
+    <x v="50"/>
     <n v="254"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{610}"/>
+    <x v="51"/>
     <n v="73"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{611}"/>
+    <x v="52"/>
     <n v="1"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{630}"/>
+    <x v="53"/>
     <n v="8"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{648}"/>
+    <x v="54"/>
     <n v="2"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{650}"/>
+    <x v="55"/>
     <n v="42"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{651}"/>
+    <x v="56"/>
     <n v="93"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{653}"/>
+    <x v="57"/>
     <n v="13"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{655}"/>
+    <x v="58"/>
     <n v="2"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{700}"/>
+    <x v="59"/>
     <n v="2792"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{710}"/>
+    <x v="60"/>
     <n v="1157"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{711}"/>
+    <x v="61"/>
     <n v="2"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{730}"/>
+    <x v="62"/>
     <n v="49"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{740}"/>
+    <x v="63"/>
     <n v="143"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{765}"/>
+    <x v="67"/>
     <n v="1"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{770}"/>
+    <x v="69"/>
     <n v="1"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{773}"/>
+    <x v="71"/>
     <n v="111"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{775}"/>
+    <x v="73"/>
     <n v="13"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{776}"/>
+    <x v="74"/>
     <n v="2"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{780}"/>
+    <x v="76"/>
     <n v="7"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{785}"/>
+    <x v="77"/>
     <n v="3"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{787}"/>
+    <x v="78"/>
     <n v="1"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{800}"/>
+    <x v="79"/>
     <n v="51"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{810}"/>
+    <x v="80"/>
     <n v="2"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{830}"/>
+    <x v="82"/>
     <n v="979"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="{880}"/>
+    <x v="85"/>
     <n v="1"/>
   </r>
   <r>
     <x v="14"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{100}"/>
+    <x v="3"/>
     <n v="36"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{110}"/>
+    <x v="4"/>
     <n v="6"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{111}"/>
+    <x v="5"/>
     <n v="2"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{130}"/>
+    <x v="6"/>
     <n v="1"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{240}"/>
+    <x v="9"/>
     <n v="5"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{245}"/>
+    <x v="10"/>
     <n v="118"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{246}"/>
+    <x v="11"/>
     <n v="35"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{250}"/>
+    <x v="13"/>
     <n v="8"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{260}"/>
+    <x v="15"/>
     <n v="17"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{264}"/>
+    <x v="16"/>
     <n v="47"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{300}"/>
+    <x v="18"/>
     <n v="1"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{490}"/>
+    <x v="23"/>
     <n v="7"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{500}"/>
+    <x v="24"/>
     <n v="7"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{505}"/>
+    <x v="28"/>
     <n v="304"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{520}"/>
+    <x v="33"/>
     <n v="3"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{588}"/>
+    <x v="48"/>
     <n v="2"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{600}"/>
+    <x v="50"/>
     <n v="7"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{610}"/>
+    <x v="51"/>
     <n v="5"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{651}"/>
+    <x v="56"/>
     <n v="2"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{700}"/>
+    <x v="59"/>
     <n v="27"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{710}"/>
+    <x v="60"/>
     <n v="12"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{740}"/>
+    <x v="63"/>
     <n v="1"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{765}"/>
+    <x v="67"/>
     <n v="1"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{776}"/>
+    <x v="74"/>
     <n v="2"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="{830}"/>
+    <x v="82"/>
     <n v="5"/>
   </r>
   <r>
     <x v="16"/>
-    <s v="{505}"/>
+    <x v="28"/>
     <n v="5"/>
   </r>
   <r>
     <x v="17"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{020}"/>
+    <x v="0"/>
     <n v="13"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{028}"/>
+    <x v="1"/>
     <n v="23"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{037}"/>
+    <x v="2"/>
     <n v="18"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{100}"/>
+    <x v="3"/>
     <n v="24928"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{110}"/>
+    <x v="4"/>
     <n v="362"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{111}"/>
+    <x v="5"/>
     <n v="653"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{130}"/>
+    <x v="6"/>
     <n v="822"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{210}"/>
+    <x v="7"/>
     <n v="11"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{222}"/>
+    <x v="8"/>
     <n v="63"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{240}"/>
+    <x v="9"/>
     <n v="1167"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{245}"/>
+    <x v="10"/>
     <n v="41174"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{246}"/>
+    <x v="11"/>
     <n v="7689"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{247}"/>
+    <x v="12"/>
     <n v="4"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{250}"/>
+    <x v="13"/>
     <n v="1668"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{254}"/>
+    <x v="86"/>
     <n v="8"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{255}"/>
+    <x v="14"/>
     <n v="1"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{260}"/>
+    <x v="15"/>
     <n v="29752"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{264}"/>
+    <x v="16"/>
     <n v="9217"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{300}"/>
+    <x v="18"/>
     <n v="10"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{310}"/>
+    <x v="19"/>
     <n v="1"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{321}"/>
+    <x v="20"/>
     <n v="1"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{362}"/>
+    <x v="21"/>
     <n v="372"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{490}"/>
+    <x v="23"/>
     <n v="9510"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{500}"/>
+    <x v="24"/>
     <n v="12445"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{501}"/>
+    <x v="25"/>
     <n v="10"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{502}"/>
+    <x v="26"/>
     <n v="5"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{504}"/>
+    <x v="27"/>
     <n v="271"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{505}"/>
+    <x v="28"/>
     <n v="3913"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{506}"/>
+    <x v="87"/>
     <n v="1"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{508}"/>
+    <x v="29"/>
     <n v="7"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{510}"/>
+    <x v="88"/>
     <n v="6"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{511}"/>
+    <x v="30"/>
     <n v="18"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{515}"/>
+    <x v="31"/>
     <n v="138"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{520}"/>
+    <x v="33"/>
     <n v="91"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{521}"/>
+    <x v="34"/>
     <n v="13"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{525}"/>
+    <x v="35"/>
     <n v="64"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{530}"/>
+    <x v="36"/>
     <n v="5"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{533}"/>
+    <x v="37"/>
     <n v="16"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{534}"/>
+    <x v="38"/>
     <n v="9"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{542}"/>
+    <x v="89"/>
     <n v="1"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{546}"/>
+    <x v="42"/>
     <n v="11"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{550}"/>
+    <x v="44"/>
     <n v="569"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{555}"/>
+    <x v="45"/>
     <n v="7"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{580}"/>
+    <x v="46"/>
     <n v="195"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{586}"/>
+    <x v="47"/>
     <n v="8"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{588}"/>
+    <x v="48"/>
     <n v="286"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{590}"/>
+    <x v="49"/>
     <n v="1"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{600}"/>
+    <x v="50"/>
     <n v="7197"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{610}"/>
+    <x v="51"/>
     <n v="2618"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{611}"/>
+    <x v="52"/>
     <n v="44"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{630}"/>
+    <x v="53"/>
     <n v="88"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{650}"/>
+    <x v="55"/>
     <n v="103"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{651}"/>
+    <x v="56"/>
     <n v="445"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{653}"/>
+    <x v="57"/>
     <n v="4"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{655}"/>
+    <x v="58"/>
     <n v="10"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{700}"/>
+    <x v="59"/>
     <n v="17704"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{710}"/>
+    <x v="60"/>
     <n v="9765"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{711}"/>
+    <x v="61"/>
     <n v="165"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{730}"/>
+    <x v="62"/>
     <n v="271"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{740}"/>
+    <x v="63"/>
     <n v="932"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{752}"/>
+    <x v="64"/>
     <n v="57"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{765}"/>
+    <x v="67"/>
     <n v="47"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{767}"/>
+    <x v="68"/>
     <n v="14"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{770}"/>
+    <x v="69"/>
     <n v="135"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{772}"/>
+    <x v="70"/>
     <n v="78"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{773}"/>
+    <x v="71"/>
     <n v="1"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{774}"/>
+    <x v="72"/>
     <n v="1"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{775}"/>
+    <x v="73"/>
     <n v="48"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{776}"/>
+    <x v="74"/>
     <n v="493"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{777}"/>
+    <x v="75"/>
     <n v="11"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{780}"/>
+    <x v="76"/>
     <n v="530"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{785}"/>
+    <x v="77"/>
     <n v="319"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{786}"/>
+    <x v="90"/>
     <n v="1"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{787}"/>
+    <x v="78"/>
     <n v="75"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{800}"/>
+    <x v="79"/>
     <n v="205"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{810}"/>
+    <x v="80"/>
     <n v="5"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="{830}"/>
+    <x v="82"/>
     <n v="9745"/>
   </r>
   <r>
     <x v="19"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="20"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="21"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="22"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="23"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="24"/>
-    <s v="{100}"/>
+    <x v="3"/>
     <n v="2"/>
   </r>
   <r>
     <x v="24"/>
-    <s v="{245}"/>
+    <x v="10"/>
     <n v="6"/>
   </r>
   <r>
     <x v="24"/>
-    <s v="{246}"/>
+    <x v="11"/>
     <n v="5"/>
   </r>
   <r>
     <x v="24"/>
-    <s v="{264}"/>
+    <x v="16"/>
     <n v="2"/>
   </r>
   <r>
     <x v="24"/>
-    <s v="{700}"/>
+    <x v="59"/>
     <n v="3"/>
   </r>
   <r>
     <x v="24"/>
-    <s v="{710}"/>
+    <x v="60"/>
     <n v="1"/>
   </r>
   <r>
     <x v="25"/>
-    <s v="{130}"/>
+    <x v="6"/>
     <n v="1"/>
   </r>
   <r>
     <x v="25"/>
-    <s v="{245}"/>
+    <x v="10"/>
     <n v="1"/>
   </r>
   <r>
     <x v="25"/>
-    <s v="{246}"/>
+    <x v="11"/>
     <n v="2"/>
   </r>
   <r>
     <x v="25"/>
-    <s v="{505}"/>
+    <x v="28"/>
     <n v="1"/>
   </r>
   <r>
     <x v="25"/>
-    <s v="{700}"/>
+    <x v="59"/>
     <n v="1"/>
   </r>
   <r>
     <x v="25"/>
-    <s v="{710}"/>
+    <x v="60"/>
     <n v="2"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{100}"/>
+    <x v="3"/>
     <n v="21888"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{110}"/>
+    <x v="4"/>
     <n v="258"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{111}"/>
+    <x v="5"/>
     <n v="135"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{130}"/>
+    <x v="6"/>
     <n v="86"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{210}"/>
+    <x v="7"/>
     <n v="3"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{222}"/>
+    <x v="8"/>
     <n v="8"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{240}"/>
+    <x v="9"/>
     <n v="579"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{242}"/>
+    <x v="91"/>
     <n v="1"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{245}"/>
+    <x v="10"/>
     <n v="25252"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{246}"/>
+    <x v="11"/>
     <n v="2925"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{250}"/>
+    <x v="13"/>
     <n v="19221"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{260}"/>
+    <x v="15"/>
     <n v="13276"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{264}"/>
+    <x v="16"/>
     <n v="11080"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{300}"/>
+    <x v="18"/>
     <n v="88"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{362}"/>
+    <x v="21"/>
     <n v="22"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{490}"/>
+    <x v="23"/>
     <n v="5012"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{500}"/>
+    <x v="24"/>
     <n v="1032"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{504}"/>
+    <x v="27"/>
     <n v="12"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{505}"/>
+    <x v="28"/>
     <n v="623"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{508}"/>
+    <x v="29"/>
     <n v="191"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{510}"/>
+    <x v="88"/>
     <n v="1"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{511}"/>
+    <x v="30"/>
     <n v="261"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{520}"/>
+    <x v="33"/>
     <n v="10"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{525}"/>
+    <x v="35"/>
     <n v="1"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{533}"/>
+    <x v="37"/>
     <n v="1"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{534}"/>
+    <x v="38"/>
     <n v="3"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{546}"/>
+    <x v="42"/>
     <n v="4"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{550}"/>
+    <x v="44"/>
     <n v="2"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{580}"/>
+    <x v="46"/>
     <n v="1"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{586}"/>
+    <x v="47"/>
     <n v="6"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{588}"/>
+    <x v="48"/>
     <n v="1"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{600}"/>
+    <x v="50"/>
     <n v="3663"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{610}"/>
+    <x v="51"/>
     <n v="566"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{630}"/>
+    <x v="53"/>
     <n v="87"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{650}"/>
+    <x v="55"/>
     <n v="20"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{651}"/>
+    <x v="56"/>
     <n v="4"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{655}"/>
+    <x v="58"/>
     <n v="3"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{700}"/>
+    <x v="59"/>
     <n v="10982"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{710}"/>
+    <x v="60"/>
     <n v="2948"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{711}"/>
+    <x v="61"/>
     <n v="18"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{730}"/>
+    <x v="62"/>
     <n v="101"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{740}"/>
+    <x v="63"/>
     <n v="171"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{772}"/>
+    <x v="70"/>
     <n v="1"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{775}"/>
+    <x v="73"/>
     <n v="2"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{776}"/>
+    <x v="74"/>
     <n v="3820"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{780}"/>
+    <x v="76"/>
     <n v="5"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{785}"/>
+    <x v="77"/>
     <n v="6"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{787}"/>
+    <x v="78"/>
     <n v="2"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{800}"/>
+    <x v="79"/>
     <n v="110"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{810}"/>
+    <x v="80"/>
     <n v="19"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{811}"/>
+    <x v="81"/>
     <n v="1"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="{830}"/>
+    <x v="82"/>
     <n v="4351"/>
   </r>
   <r>
     <x v="27"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="28"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="29"/>
-    <s v="{505}"/>
+    <x v="28"/>
     <n v="1"/>
   </r>
   <r>
     <x v="30"/>
-    <s v="{505}"/>
+    <x v="28"/>
     <n v="1"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{100}"/>
+    <x v="3"/>
     <n v="950"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{110}"/>
+    <x v="4"/>
     <n v="5"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{130}"/>
+    <x v="6"/>
     <n v="19"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{240}"/>
+    <x v="9"/>
     <n v="39"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{245}"/>
+    <x v="10"/>
     <n v="1464"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{246}"/>
+    <x v="11"/>
     <n v="275"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{250}"/>
+    <x v="13"/>
     <n v="67"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{260}"/>
+    <x v="15"/>
     <n v="817"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{264}"/>
+    <x v="16"/>
     <n v="416"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{300}"/>
+    <x v="18"/>
     <n v="1"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{362}"/>
+    <x v="21"/>
     <n v="4"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{490}"/>
+    <x v="23"/>
     <n v="381"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{500}"/>
+    <x v="24"/>
     <n v="64"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{504}"/>
+    <x v="27"/>
     <n v="2"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{505}"/>
+    <x v="28"/>
     <n v="47"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{508}"/>
+    <x v="29"/>
     <n v="10"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{511}"/>
+    <x v="30"/>
     <n v="15"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{520}"/>
+    <x v="33"/>
     <n v="11"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{585}"/>
+    <x v="92"/>
     <n v="1"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{586}"/>
+    <x v="47"/>
     <n v="1"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{600}"/>
+    <x v="50"/>
     <n v="142"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{610}"/>
+    <x v="51"/>
     <n v="19"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{630}"/>
+    <x v="53"/>
     <n v="3"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{651}"/>
+    <x v="56"/>
     <n v="5"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{700}"/>
+    <x v="59"/>
     <n v="774"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{710}"/>
+    <x v="60"/>
     <n v="115"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{730}"/>
+    <x v="62"/>
     <n v="10"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{740}"/>
+    <x v="63"/>
     <n v="59"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{776}"/>
+    <x v="74"/>
     <n v="1"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{787}"/>
+    <x v="78"/>
     <n v="1"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{800}"/>
+    <x v="79"/>
     <n v="1"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="{830}"/>
+    <x v="82"/>
     <n v="319"/>
   </r>
   <r>
     <x v="32"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="33"/>
-    <s v="{505}"/>
+    <x v="28"/>
     <n v="1"/>
   </r>
   <r>
     <x v="34"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="35"/>
-    <s v="{500}"/>
+    <x v="24"/>
     <n v="1"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="{100}"/>
+    <x v="3"/>
     <n v="127"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="{111}"/>
+    <x v="5"/>
     <n v="1"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="{245}"/>
+    <x v="10"/>
     <n v="241"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="{246}"/>
+    <x v="11"/>
     <n v="36"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="{250}"/>
+    <x v="13"/>
     <n v="189"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="{260}"/>
+    <x v="15"/>
     <n v="39"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="{264}"/>
+    <x v="16"/>
     <n v="193"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="{490}"/>
+    <x v="23"/>
     <n v="37"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="{500}"/>
+    <x v="24"/>
     <n v="14"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="{505}"/>
+    <x v="28"/>
     <n v="16"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="{586}"/>
+    <x v="47"/>
     <n v="2"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="{600}"/>
+    <x v="50"/>
     <n v="18"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="{630}"/>
+    <x v="53"/>
     <n v="1"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="{700}"/>
+    <x v="59"/>
     <n v="83"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="{710}"/>
+    <x v="60"/>
     <n v="12"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="{730}"/>
+    <x v="62"/>
     <n v="1"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="{740}"/>
+    <x v="63"/>
     <n v="2"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="{830}"/>
+    <x v="82"/>
     <n v="22"/>
   </r>
   <r>
     <x v="37"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="38"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="39"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="40"/>
-    <s v="{520}"/>
+    <x v="33"/>
     <n v="1"/>
   </r>
   <r>
     <x v="41"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="42"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="43"/>
-    <s v="{100}"/>
+    <x v="3"/>
     <n v="106"/>
   </r>
   <r>
     <x v="43"/>
-    <s v="{245}"/>
+    <x v="10"/>
     <n v="143"/>
   </r>
   <r>
     <x v="43"/>
-    <s v="{246}"/>
+    <x v="11"/>
     <n v="12"/>
   </r>
   <r>
     <x v="43"/>
-    <s v="{250}"/>
+    <x v="13"/>
     <n v="60"/>
   </r>
   <r>
     <x v="43"/>
-    <s v="{260}"/>
+    <x v="15"/>
     <n v="76"/>
   </r>
   <r>
     <x v="43"/>
-    <s v="{264}"/>
+    <x v="16"/>
     <n v="65"/>
   </r>
   <r>
     <x v="43"/>
-    <s v="{300}"/>
+    <x v="18"/>
     <n v="6"/>
   </r>
   <r>
     <x v="43"/>
-    <s v="{490}"/>
+    <x v="23"/>
     <n v="26"/>
   </r>
   <r>
     <x v="43"/>
-    <s v="{500}"/>
+    <x v="24"/>
     <n v="2"/>
   </r>
   <r>
     <x v="43"/>
-    <s v="{504}"/>
+    <x v="27"/>
     <n v="1"/>
   </r>
   <r>
     <x v="43"/>
-    <s v="{505}"/>
+    <x v="28"/>
     <n v="8"/>
   </r>
   <r>
     <x v="43"/>
-    <s v="{600}"/>
+    <x v="50"/>
     <n v="8"/>
   </r>
   <r>
     <x v="43"/>
-    <s v="{610}"/>
+    <x v="51"/>
     <n v="1"/>
   </r>
   <r>
     <x v="43"/>
-    <s v="{630}"/>
+    <x v="53"/>
     <n v="2"/>
   </r>
   <r>
     <x v="43"/>
-    <s v="{700}"/>
+    <x v="59"/>
     <n v="27"/>
   </r>
   <r>
     <x v="43"/>
-    <s v="{710}"/>
+    <x v="60"/>
     <n v="2"/>
   </r>
   <r>
     <x v="43"/>
-    <s v="{830}"/>
+    <x v="82"/>
     <n v="18"/>
   </r>
   <r>
     <x v="44"/>
-    <s v="{100}"/>
+    <x v="3"/>
     <n v="1"/>
   </r>
   <r>
     <x v="44"/>
-    <s v="{245}"/>
+    <x v="10"/>
     <n v="4"/>
   </r>
   <r>
     <x v="44"/>
-    <s v="{505}"/>
+    <x v="28"/>
     <n v="1"/>
   </r>
   <r>
     <x v="44"/>
-    <s v="{600}"/>
+    <x v="50"/>
     <n v="1"/>
   </r>
   <r>
     <x v="45"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="46"/>
-    <s v="{245}"/>
+    <x v="10"/>
     <n v="2"/>
   </r>
   <r>
     <x v="46"/>
-    <s v="{505}"/>
+    <x v="28"/>
     <n v="1"/>
   </r>
   <r>
     <x v="46"/>
-    <s v="{710}"/>
+    <x v="60"/>
     <n v="5"/>
   </r>
   <r>
     <x v="47"/>
-    <s v="{100}"/>
+    <x v="3"/>
     <n v="1"/>
   </r>
   <r>
     <x v="47"/>
-    <s v="{245}"/>
+    <x v="10"/>
     <n v="6"/>
   </r>
   <r>
     <x v="47"/>
-    <s v="{246}"/>
+    <x v="11"/>
     <n v="1"/>
   </r>
   <r>
     <x v="47"/>
-    <s v="{505}"/>
+    <x v="28"/>
     <n v="1"/>
   </r>
   <r>
     <x v="47"/>
-    <s v="{588}"/>
+    <x v="48"/>
     <n v="1"/>
   </r>
   <r>
     <x v="47"/>
-    <s v="{600}"/>
+    <x v="50"/>
     <n v="1"/>
   </r>
   <r>
     <x v="47"/>
-    <s v="{710}"/>
+    <x v="60"/>
     <n v="4"/>
   </r>
   <r>
     <x v="48"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="49"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="50"/>
-    <s v="{245}"/>
+    <x v="10"/>
     <n v="1"/>
   </r>
   <r>
     <x v="51"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="52"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
   <r>
     <x v="53"/>
-    <s v="{245}"/>
+    <x v="10"/>
     <n v="1"/>
   </r>
   <r>
     <x v="53"/>
-    <s v="{246}"/>
+    <x v="11"/>
     <n v="1"/>
   </r>
   <r>
     <x v="53"/>
-    <s v="{500}"/>
+    <x v="24"/>
     <n v="1"/>
   </r>
   <r>
     <x v="53"/>
-    <s v="{710}"/>
+    <x v="60"/>
     <n v="2"/>
   </r>
   <r>
     <x v="54"/>
-    <s v="na"/>
+    <x v="84"/>
     <n v="0"/>
   </r>
 </pivotCacheRecords>
@@ -3994,861 +4149,929 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="159">
   <r>
     <x v="0"/>
-    <s v="{090}"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{100}"/>
+    <x v="1"/>
     <n v="546"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{130}"/>
+    <x v="2"/>
     <n v="27834"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{240}"/>
+    <x v="3"/>
     <n v="1"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{245}"/>
+    <x v="4"/>
     <n v="28574"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{246}"/>
+    <x v="5"/>
     <n v="34"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{250}"/>
+    <x v="6"/>
     <n v="3"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{260}"/>
+    <x v="7"/>
     <n v="5868"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{264}"/>
+    <x v="8"/>
     <n v="1"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{440}"/>
+    <x v="9"/>
     <n v="5"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{500}"/>
+    <x v="10"/>
     <n v="213"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{501}"/>
+    <x v="11"/>
     <n v="1"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{502}"/>
+    <x v="12"/>
     <n v="1"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{504}"/>
+    <x v="13"/>
     <n v="2"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{505}"/>
+    <x v="14"/>
     <n v="7"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{520}"/>
+    <x v="15"/>
     <n v="2211"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{533}"/>
+    <x v="16"/>
     <n v="1"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{534}"/>
+    <x v="17"/>
     <n v="2"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{546}"/>
+    <x v="18"/>
     <n v="1"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{600}"/>
+    <x v="19"/>
     <n v="1"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{650}"/>
+    <x v="20"/>
     <n v="2"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{651}"/>
+    <x v="21"/>
     <n v="1"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{700}"/>
+    <x v="22"/>
     <n v="393"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{710}"/>
+    <x v="23"/>
     <n v="3"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{740}"/>
+    <x v="24"/>
     <n v="2"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{765}"/>
+    <x v="25"/>
     <n v="1"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{856}"/>
+    <x v="26"/>
     <n v="7012"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="{960}"/>
+    <x v="27"/>
     <n v="1"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{100}"/>
+    <x v="1"/>
     <n v="6"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{130}"/>
+    <x v="2"/>
     <n v="117"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{245}"/>
+    <x v="4"/>
     <n v="154"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{246}"/>
+    <x v="5"/>
     <n v="77"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{260}"/>
+    <x v="7"/>
     <n v="132"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{264}"/>
+    <x v="8"/>
     <n v="1"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{362}"/>
+    <x v="28"/>
     <n v="1"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{500}"/>
+    <x v="10"/>
     <n v="16"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{504}"/>
+    <x v="13"/>
     <n v="1"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{505}"/>
+    <x v="14"/>
     <n v="17"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{511}"/>
+    <x v="29"/>
     <n v="1"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{518}"/>
+    <x v="30"/>
     <n v="1"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{520}"/>
+    <x v="15"/>
     <n v="69"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{534}"/>
+    <x v="17"/>
     <n v="3"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{586}"/>
+    <x v="31"/>
     <n v="2"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{588}"/>
+    <x v="32"/>
     <n v="3"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{590}"/>
+    <x v="33"/>
     <n v="27"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{700}"/>
+    <x v="22"/>
     <n v="1"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{740}"/>
+    <x v="24"/>
     <n v="1"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{776}"/>
+    <x v="34"/>
     <n v="1"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{785}"/>
+    <x v="35"/>
     <n v="1"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{856}"/>
+    <x v="26"/>
     <n v="1"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{948}"/>
+    <x v="36"/>
     <n v="1"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="{949}"/>
+    <x v="37"/>
     <n v="17"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{100}"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{130}"/>
+    <x v="2"/>
     <n v="8"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{210}"/>
+    <x v="38"/>
     <n v="5"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{222}"/>
+    <x v="39"/>
     <n v="5"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{240}"/>
+    <x v="3"/>
     <n v="1"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{245}"/>
+    <x v="4"/>
     <n v="24"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{246}"/>
+    <x v="5"/>
     <n v="22"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{260}"/>
+    <x v="7"/>
     <n v="12"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{264}"/>
+    <x v="8"/>
     <n v="1"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{490}"/>
+    <x v="40"/>
     <n v="4"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{500}"/>
+    <x v="10"/>
     <n v="118"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{505}"/>
+    <x v="14"/>
     <n v="33"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{511}"/>
+    <x v="29"/>
     <n v="1"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{515}"/>
+    <x v="41"/>
     <n v="1"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{518}"/>
+    <x v="30"/>
     <n v="1"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{520}"/>
+    <x v="15"/>
     <n v="27"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{586}"/>
+    <x v="31"/>
     <n v="2"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{590}"/>
+    <x v="33"/>
     <n v="16"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{700}"/>
+    <x v="22"/>
     <n v="2"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{710}"/>
+    <x v="23"/>
     <n v="7"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{740}"/>
+    <x v="24"/>
     <n v="2"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{776}"/>
+    <x v="34"/>
     <n v="2"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{780}"/>
+    <x v="42"/>
     <n v="3"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{856}"/>
+    <x v="26"/>
     <n v="1"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{948}"/>
+    <x v="36"/>
     <n v="1"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="{949}"/>
+    <x v="37"/>
     <n v="37"/>
   </r>
   <r>
     <x v="3"/>
-    <s v="{090}"/>
+    <x v="0"/>
     <n v="2"/>
   </r>
   <r>
     <x v="3"/>
-    <s v="{100}"/>
+    <x v="1"/>
     <n v="29"/>
   </r>
   <r>
     <x v="3"/>
-    <s v="{130}"/>
+    <x v="2"/>
     <n v="2154"/>
   </r>
   <r>
     <x v="3"/>
-    <s v="{245}"/>
+    <x v="4"/>
     <n v="2194"/>
   </r>
   <r>
     <x v="3"/>
-    <s v="{246}"/>
+    <x v="5"/>
     <n v="3"/>
   </r>
   <r>
     <x v="3"/>
-    <s v="{260}"/>
+    <x v="7"/>
     <n v="1460"/>
   </r>
   <r>
     <x v="3"/>
-    <s v="{264}"/>
+    <x v="8"/>
     <n v="2"/>
   </r>
   <r>
     <x v="3"/>
-    <s v="{440}"/>
+    <x v="9"/>
     <n v="1"/>
   </r>
   <r>
     <x v="3"/>
-    <s v="{500}"/>
+    <x v="10"/>
     <n v="1"/>
   </r>
   <r>
     <x v="3"/>
-    <s v="{505}"/>
+    <x v="14"/>
     <n v="1"/>
   </r>
   <r>
     <x v="3"/>
-    <s v="{700}"/>
+    <x v="22"/>
     <n v="4"/>
   </r>
   <r>
     <x v="3"/>
-    <s v="{710}"/>
+    <x v="23"/>
     <n v="1"/>
   </r>
   <r>
     <x v="3"/>
-    <s v="{999}"/>
+    <x v="43"/>
     <n v="2"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="{100}"/>
+    <x v="1"/>
     <n v="6"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="{130}"/>
+    <x v="2"/>
     <n v="3226"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="{245}"/>
+    <x v="4"/>
     <n v="3422"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="{246}"/>
+    <x v="5"/>
     <n v="1"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="{250}"/>
+    <x v="6"/>
     <n v="1"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="{260}"/>
+    <x v="7"/>
     <n v="1656"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="{440}"/>
+    <x v="9"/>
     <n v="1"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="{700}"/>
+    <x v="22"/>
     <n v="175"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="{100}"/>
+    <x v="1"/>
     <n v="4"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="{130}"/>
+    <x v="2"/>
     <n v="1234"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="{240}"/>
+    <x v="3"/>
     <n v="1"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="{245}"/>
+    <x v="4"/>
     <n v="1574"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="{246}"/>
+    <x v="5"/>
     <n v="1"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="{260}"/>
+    <x v="7"/>
     <n v="154"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="{440}"/>
+    <x v="9"/>
     <n v="1"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="{500}"/>
+    <x v="10"/>
     <n v="2"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="{501}"/>
+    <x v="11"/>
     <n v="1"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="{505}"/>
+    <x v="14"/>
     <n v="1"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="{700}"/>
+    <x v="22"/>
     <n v="1"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="{245}"/>
+    <x v="4"/>
     <n v="21"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="{246}"/>
+    <x v="5"/>
     <n v="23"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="{250}"/>
+    <x v="6"/>
     <n v="1"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="{260}"/>
+    <x v="7"/>
     <n v="9"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="{500}"/>
+    <x v="10"/>
     <n v="55"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="{505}"/>
+    <x v="14"/>
     <n v="16"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="{510}"/>
+    <x v="44"/>
     <n v="1"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="{520}"/>
+    <x v="15"/>
     <n v="53"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="{546}"/>
+    <x v="18"/>
     <n v="1"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="{562}"/>
+    <x v="45"/>
     <n v="1"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="{710}"/>
+    <x v="23"/>
     <n v="3"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="{740}"/>
+    <x v="24"/>
     <n v="5"/>
   </r>
   <r>
     <x v="7"/>
-    <s v="{130}"/>
+    <x v="2"/>
     <n v="1"/>
   </r>
   <r>
     <x v="7"/>
-    <s v="{245}"/>
+    <x v="4"/>
     <n v="2"/>
   </r>
   <r>
     <x v="7"/>
-    <s v="{500}"/>
+    <x v="10"/>
     <n v="5"/>
   </r>
   <r>
     <x v="8"/>
-    <s v="{130}"/>
+    <x v="2"/>
     <n v="2"/>
   </r>
   <r>
     <x v="8"/>
-    <s v="{245}"/>
+    <x v="4"/>
     <n v="2"/>
   </r>
   <r>
     <x v="8"/>
-    <s v="{500}"/>
+    <x v="10"/>
     <n v="9"/>
   </r>
   <r>
     <x v="8"/>
-    <s v="{520}"/>
+    <x v="15"/>
     <n v="124"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{086}"/>
+    <x v="46"/>
     <n v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{130}"/>
+    <x v="2"/>
     <n v="5"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{240}"/>
+    <x v="3"/>
     <n v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{245}"/>
+    <x v="4"/>
     <n v="257"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{246}"/>
+    <x v="5"/>
     <n v="54"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{250}"/>
+    <x v="6"/>
     <n v="5"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{260}"/>
+    <x v="7"/>
     <n v="10"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{264}"/>
+    <x v="8"/>
     <n v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{300}"/>
+    <x v="47"/>
     <n v="2"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{490}"/>
+    <x v="40"/>
     <n v="3"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{500}"/>
+    <x v="10"/>
     <n v="40"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{505}"/>
+    <x v="14"/>
     <n v="238"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{518}"/>
+    <x v="30"/>
     <n v="2"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{520}"/>
+    <x v="15"/>
     <n v="51"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{561}"/>
+    <x v="48"/>
     <n v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{580}"/>
+    <x v="49"/>
     <n v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{586}"/>
+    <x v="31"/>
     <n v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{590}"/>
+    <x v="33"/>
     <n v="1316"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{610}"/>
+    <x v="50"/>
     <n v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{630}"/>
+    <x v="51"/>
     <n v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{650}"/>
+    <x v="20"/>
     <n v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{651}"/>
+    <x v="21"/>
     <n v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{690}"/>
+    <x v="52"/>
     <n v="8"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{700}"/>
+    <x v="22"/>
     <n v="4"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{740}"/>
+    <x v="24"/>
     <n v="4"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{776}"/>
+    <x v="34"/>
     <n v="2"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{830}"/>
+    <x v="53"/>
     <n v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="{856}"/>
+    <x v="26"/>
     <n v="2"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{246}"/>
+    <x v="5"/>
     <n v="3"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="{500}"/>
+    <x v="10"/>
     <n v="9"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nvfieldsummary" cacheId="104" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nvfieldsummary" cacheId="68" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="12">
+        <item sd="0" x="2"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="10"/>
+        <item t="default" sd="0"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="2"/>
-        <item x="8"/>
+      <items count="55">
+        <item x="46"/>
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
         <item x="7"/>
+        <item x="8"/>
+        <item x="47"/>
+        <item x="28"/>
         <item x="9"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
+        <item x="40"/>
         <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="44"/>
+        <item x="29"/>
+        <item x="41"/>
+        <item x="30"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="48"/>
+        <item x="45"/>
+        <item x="49"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="19"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="52"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="34"/>
+        <item x="42"/>
+        <item x="35"/>
+        <item x="53"/>
+        <item x="26"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="27"/>
+        <item x="43"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="0"/>
+    <field x="1"/>
   </rowFields>
   <rowItems count="12">
     <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
       <x/>
+    </i>
+    <i>
+      <x v="7"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
+      <x v="10"/>
     </i>
     <i>
       <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -4870,10 +5093,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="vfieldsummary" cacheId="103" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="vfieldsummary" cacheId="69" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
       <items count="55">
         <item x="39"/>
         <item x="26"/>
@@ -4931,169 +5154,149 @@
         <item x="47"/>
         <item x="14"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="94">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="91"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="86"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item h="1" x="22"/>
+        <item h="1" x="23"/>
+        <item h="1" x="24"/>
+        <item h="1" x="25"/>
+        <item h="1" x="26"/>
+        <item h="1" x="27"/>
+        <item h="1" x="28"/>
+        <item h="1" x="87"/>
+        <item h="1" x="29"/>
+        <item h="1" x="88"/>
+        <item h="1" x="30"/>
+        <item h="1" x="31"/>
+        <item h="1" x="32"/>
+        <item h="1" x="33"/>
+        <item h="1" x="34"/>
+        <item h="1" x="35"/>
+        <item h="1" x="36"/>
+        <item h="1" x="37"/>
+        <item h="1" x="38"/>
+        <item h="1" x="39"/>
+        <item h="1" x="40"/>
+        <item h="1" x="41"/>
+        <item h="1" x="89"/>
+        <item h="1" x="42"/>
+        <item h="1" x="43"/>
+        <item h="1" x="44"/>
+        <item h="1" x="45"/>
+        <item h="1" x="46"/>
+        <item h="1" x="92"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item h="1" x="59"/>
+        <item h="1" x="60"/>
+        <item h="1" x="61"/>
+        <item h="1" x="62"/>
+        <item h="1" x="63"/>
+        <item h="1" x="64"/>
+        <item h="1" x="65"/>
+        <item h="1" x="66"/>
+        <item h="1" x="67"/>
+        <item h="1" x="68"/>
+        <item h="1" x="69"/>
+        <item h="1" x="70"/>
+        <item h="1" x="71"/>
+        <item h="1" x="72"/>
+        <item h="1" x="73"/>
+        <item h="1" x="74"/>
+        <item h="1" x="75"/>
+        <item h="1" x="76"/>
+        <item h="1" x="77"/>
+        <item h="1" x="90"/>
+        <item h="1" x="78"/>
+        <item h="1" x="79"/>
+        <item h="1" x="80"/>
+        <item h="1" x="81"/>
+        <item h="1" x="82"/>
+        <item h="1" x="83"/>
+        <item h="1" x="85"/>
+        <item h="1" x="84"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="56">
+  <rowItems count="14">
     <i>
-      <x/>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="17"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="33"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="39"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="34"/>
     </i>
     <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
+      <x v="36"/>
     </i>
     <i>
       <x v="10"/>
     </i>
     <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
       <x v="23"/>
     </i>
     <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
       <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
     </i>
     <i>
       <x v="52"/>
@@ -5102,7 +5305,7 @@
       <x v="53"/>
     </i>
     <i>
-      <x v="54"/>
+      <x v="41"/>
     </i>
     <i t="grand">
       <x/>
@@ -5111,6 +5314,9 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
     <dataField name="Sum of 880" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
@@ -5440,8 +5646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5451,6 +5657,9 @@
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5511,7 +5720,7 @@
       </c>
       <c r="H2">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>616519</v>
+        <v>28909</v>
       </c>
       <c r="I2">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -5546,7 +5755,7 @@
       </c>
       <c r="H3">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>196668</v>
+        <v>10509</v>
       </c>
       <c r="I3">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -5581,7 +5790,7 @@
       </c>
       <c r="H4">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>128863</v>
+        <v>4343</v>
       </c>
       <c r="I4">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -5616,7 +5825,7 @@
       </c>
       <c r="H5">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>19094</v>
+        <v>488</v>
       </c>
       <c r="I5">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -5651,7 +5860,7 @@
       </c>
       <c r="H6">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>9450</v>
+        <v>286</v>
       </c>
       <c r="I6">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -5686,7 +5895,7 @@
       </c>
       <c r="H7">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>6159</v>
+        <v>47</v>
       </c>
       <c r="I7">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -5721,7 +5930,7 @@
       </c>
       <c r="H8">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>6038</v>
+        <v>169</v>
       </c>
       <c r="I8">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -5756,7 +5965,7 @@
       </c>
       <c r="H9">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>1034</v>
+        <v>19</v>
       </c>
       <c r="I9">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -5791,7 +6000,7 @@
       </c>
       <c r="H10">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>740</v>
+        <v>23</v>
       </c>
       <c r="I10">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -5826,7 +6035,7 @@
       </c>
       <c r="H11">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>661</v>
+        <v>14</v>
       </c>
       <c r="I11">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -5861,7 +6070,7 @@
       </c>
       <c r="H12">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>563</v>
+        <v>11</v>
       </c>
       <c r="I12">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -5892,9 +6101,9 @@
         <v>43193</v>
       </c>
       <c r="G13" s="14"/>
-      <c r="H13">
+      <c r="H13" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>19</v>
+        <v>#REF!</v>
       </c>
       <c r="I13" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -5927,7 +6136,7 @@
       <c r="G14" s="14"/>
       <c r="H14">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I14" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -5958,9 +6167,9 @@
         <v>43193</v>
       </c>
       <c r="G15" s="14"/>
-      <c r="H15">
+      <c r="H15" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>8</v>
+        <v>#REF!</v>
       </c>
       <c r="I15" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -5991,9 +6200,9 @@
         <v>43193</v>
       </c>
       <c r="G16" s="14"/>
-      <c r="H16">
+      <c r="H16" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>8</v>
+        <v>#REF!</v>
       </c>
       <c r="I16" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6024,9 +6233,9 @@
         <v>43193</v>
       </c>
       <c r="G17" s="14"/>
-      <c r="H17">
+      <c r="H17" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>8</v>
+        <v>#REF!</v>
       </c>
       <c r="I17" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6057,9 +6266,9 @@
         <v>43193</v>
       </c>
       <c r="G18" s="14"/>
-      <c r="H18">
+      <c r="H18" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>7</v>
+        <v>#REF!</v>
       </c>
       <c r="I18" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6092,7 +6301,7 @@
       <c r="G19" s="14"/>
       <c r="H19">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I19" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6123,9 +6332,9 @@
         <v>43193</v>
       </c>
       <c r="G20" s="14"/>
-      <c r="H20">
+      <c r="H20" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>5</v>
+        <v>#REF!</v>
       </c>
       <c r="I20" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6156,9 +6365,9 @@
         <v>43193</v>
       </c>
       <c r="G21" s="14"/>
-      <c r="H21">
+      <c r="H21" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>5</v>
+        <v>#REF!</v>
       </c>
       <c r="I21" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6189,9 +6398,9 @@
         <v>43193</v>
       </c>
       <c r="G22" s="14"/>
-      <c r="H22">
+      <c r="H22" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>5</v>
+        <v>#REF!</v>
       </c>
       <c r="I22" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6222,9 +6431,9 @@
         <v>43193</v>
       </c>
       <c r="G23" s="14"/>
-      <c r="H23">
+      <c r="H23" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
       <c r="I23" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6255,9 +6464,9 @@
         <v>43193</v>
       </c>
       <c r="G24" s="14"/>
-      <c r="H24">
+      <c r="H24" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
       <c r="I24" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6288,9 +6497,9 @@
         <v>43193</v>
       </c>
       <c r="G25" s="14"/>
-      <c r="H25">
+      <c r="H25" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
       <c r="I25" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6321,9 +6530,9 @@
         <v>43193</v>
       </c>
       <c r="G26" s="14"/>
-      <c r="H26">
+      <c r="H26" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
       <c r="I26" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6354,9 +6563,9 @@
         <v>43193</v>
       </c>
       <c r="G27" s="14"/>
-      <c r="H27">
+      <c r="H27" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
       <c r="I27" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6387,9 +6596,9 @@
         <v>43193</v>
       </c>
       <c r="G28" s="14"/>
-      <c r="H28">
+      <c r="H28" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
       <c r="I28" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6420,9 +6629,9 @@
         <v>43193</v>
       </c>
       <c r="G29" s="14"/>
-      <c r="H29">
+      <c r="H29" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
       <c r="I29" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6453,9 +6662,9 @@
         <v>43193</v>
       </c>
       <c r="G30" s="14"/>
-      <c r="H30">
+      <c r="H30" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I30" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6486,9 +6695,9 @@
         <v>43193</v>
       </c>
       <c r="G31" s="14"/>
-      <c r="H31">
+      <c r="H31" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I31" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6519,9 +6728,9 @@
         <v>43193</v>
       </c>
       <c r="G32" s="14"/>
-      <c r="H32">
+      <c r="H32" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I32" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6552,9 +6761,9 @@
         <v>43193</v>
       </c>
       <c r="G33" s="14"/>
-      <c r="H33">
+      <c r="H33" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I33" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6585,9 +6794,9 @@
         <v>43193</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34">
+      <c r="H34" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I34" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6618,9 +6827,9 @@
         <v>43193</v>
       </c>
       <c r="G35" s="14"/>
-      <c r="H35">
+      <c r="H35" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I35" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6651,9 +6860,9 @@
         <v>43193</v>
       </c>
       <c r="G36" s="14"/>
-      <c r="H36">
+      <c r="H36" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I36" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6684,9 +6893,9 @@
         <v>43193</v>
       </c>
       <c r="G37" s="14"/>
-      <c r="H37">
+      <c r="H37" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I37" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6717,9 +6926,9 @@
         <v>43193</v>
       </c>
       <c r="G38" s="14"/>
-      <c r="H38">
+      <c r="H38" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I38" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6750,9 +6959,9 @@
         <v>43193</v>
       </c>
       <c r="G39" s="14"/>
-      <c r="H39">
+      <c r="H39" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I39" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6783,9 +6992,9 @@
         <v>43193</v>
       </c>
       <c r="G40" s="14"/>
-      <c r="H40">
+      <c r="H40" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I40" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6816,9 +7025,9 @@
         <v>43193</v>
       </c>
       <c r="G41" s="14"/>
-      <c r="H41">
+      <c r="H41" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I41" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6849,9 +7058,9 @@
         <v>43193</v>
       </c>
       <c r="G42" s="14"/>
-      <c r="H42">
+      <c r="H42" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I42" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6882,9 +7091,9 @@
         <v>43193</v>
       </c>
       <c r="G43" s="14"/>
-      <c r="H43">
+      <c r="H43" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I43" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6915,9 +7124,9 @@
         <v>43193</v>
       </c>
       <c r="G44" s="14"/>
-      <c r="H44">
+      <c r="H44" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I44" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6948,9 +7157,9 @@
         <v>43193</v>
       </c>
       <c r="G45" s="14"/>
-      <c r="H45">
+      <c r="H45" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I45" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -6981,9 +7190,9 @@
         <v>43193</v>
       </c>
       <c r="G46" s="14"/>
-      <c r="H46">
+      <c r="H46" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I46" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -7014,9 +7223,9 @@
         <v>43193</v>
       </c>
       <c r="G47" s="14"/>
-      <c r="H47">
+      <c r="H47" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I47" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -7047,9 +7256,9 @@
         <v>43193</v>
       </c>
       <c r="G48" s="14"/>
-      <c r="H48">
+      <c r="H48" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I48" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -7080,9 +7289,9 @@
         <v>43193</v>
       </c>
       <c r="G49" s="14"/>
-      <c r="H49">
+      <c r="H49" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I49" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -7113,9 +7322,9 @@
         <v>43193</v>
       </c>
       <c r="G50" s="14"/>
-      <c r="H50">
+      <c r="H50" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I50" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -7146,9 +7355,9 @@
         <v>43193</v>
       </c>
       <c r="G51" s="14"/>
-      <c r="H51">
+      <c r="H51" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I51" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -7179,9 +7388,9 @@
         <v>43193</v>
       </c>
       <c r="G52" s="14"/>
-      <c r="H52">
+      <c r="H52" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I52" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -7212,9 +7421,9 @@
         <v>43193</v>
       </c>
       <c r="G53" s="14"/>
-      <c r="H53">
+      <c r="H53" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I53" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -7245,9 +7454,9 @@
         <v>43193</v>
       </c>
       <c r="G54" s="14"/>
-      <c r="H54">
+      <c r="H54" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I54" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -7278,9 +7487,9 @@
         <v>43193</v>
       </c>
       <c r="G55" s="14"/>
-      <c r="H55">
+      <c r="H55" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I55" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -7311,9 +7520,9 @@
         <v>43193</v>
       </c>
       <c r="G56" s="14"/>
-      <c r="H56">
+      <c r="H56" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I56" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -7344,9 +7553,9 @@
         <v>43193</v>
       </c>
       <c r="G57" s="14"/>
-      <c r="H57">
+      <c r="H57" t="e">
         <f>GETPIVOTDATA("880",vfield_summary!$A$3,"Block",blocks[Block])</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I57" t="str">
         <f>IF(ISBLANK(blocks[non880s_checked]),"",GETPIVOTDATA("Field_count",nvfield_summary!$A$3,"Block",blocks[Block]))</f>
@@ -9147,18 +9356,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>294</v>
+      </c>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>269</v>
@@ -9169,58 +9383,58 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="B4" s="13">
-        <v>338</v>
+        <v>72722</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="B5" s="13">
-        <v>137</v>
+        <v>8488</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="B6" s="13">
-        <v>72722</v>
+        <v>5854</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="B7" s="13">
-        <v>651</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="B8" s="13">
-        <v>8</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B9" s="13">
-        <v>2014</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="B10" s="13">
-        <v>5854</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -9233,26 +9447,26 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="B12" s="13">
-        <v>2974</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="B13" s="13">
-        <v>8488</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B14" s="13">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -15286,18 +15500,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B59"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>295</v>
+      </c>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>269</v>
@@ -15308,450 +15530,114 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>220</v>
+        <v>2</v>
       </c>
       <c r="B4" s="13">
-        <v>0</v>
+        <v>28909</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="B5" s="13">
-        <v>128863</v>
+        <v>10509</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B6" s="13">
-        <v>0</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="B7" s="13">
-        <v>1</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="B8" s="13">
-        <v>1</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B9" s="13">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="B10" s="13">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="B11" s="13">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>116</v>
+        <v>211</v>
       </c>
       <c r="B12" s="13">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>253</v>
+        <v>139</v>
       </c>
       <c r="B13" s="13">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="B14" s="13">
-        <v>740</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>100</v>
+        <v>244</v>
       </c>
       <c r="B15" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>108</v>
+        <v>238</v>
       </c>
       <c r="B16" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>2</v>
+        <v>270</v>
       </c>
       <c r="B17" s="13">
-        <v>616519</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" s="13">
-        <v>196668</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B24" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B25" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="B26" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B27" s="13">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B28" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="B29" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B31" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B32" s="13">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B33" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="B34" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B36" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37" s="13">
-        <v>19094</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="B38" s="13">
-        <v>6038</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="B39" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B40" s="13">
-        <v>6159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B42" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" s="13">
-        <v>9450</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="B44" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="B45" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B46" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B47" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="B48" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="B49" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="B50" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="B51" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="B52" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="B53" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="B54" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="B55" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="B56" s="13">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="B57" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="B59" s="13">
-        <v>985875</v>
+        <v>44820</v>
       </c>
     </row>
   </sheetData>
